--- a/data/Fig_3.xlsx
+++ b/data/Fig_3.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10504"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5174E5E0-EE87-1D40-B70E-0BA59D093051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Jan-Feb_vals" sheetId="1" r:id="rId1"/>
-    <sheet name="Mar-Apr_vals" sheetId="2" r:id="rId2"/>
-    <sheet name="May-Jun_vals" sheetId="3" r:id="rId3"/>
-    <sheet name="Jul-Aug_vals" sheetId="4" r:id="rId4"/>
-    <sheet name="Sep-Oct_vals" sheetId="5" r:id="rId5"/>
+    <sheet name="Fig_3a" sheetId="1" r:id="rId1"/>
+    <sheet name="Fig_3b" sheetId="2" r:id="rId2"/>
+    <sheet name="Fig_3c" sheetId="3" r:id="rId3"/>
+    <sheet name="Fig_3d" sheetId="4" r:id="rId4"/>
+    <sheet name="Fig_3e" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -55,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,16 +385,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,7 +423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -441,7 +452,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -470,7 +481,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -499,7 +510,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3.9</v>
       </c>
@@ -528,7 +539,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -557,7 +568,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5.35</v>
       </c>
@@ -586,7 +597,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -615,7 +626,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -644,7 +655,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -673,7 +684,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3.9</v>
       </c>
@@ -702,7 +713,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3.9</v>
       </c>
@@ -731,7 +742,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -760,7 +771,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -789,7 +800,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>10.23</v>
       </c>
@@ -818,7 +829,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3.9</v>
       </c>
@@ -847,7 +858,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -876,7 +887,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>3.9</v>
       </c>
@@ -905,7 +916,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>7.13</v>
       </c>
@@ -934,7 +945,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -963,7 +974,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -992,7 +1003,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -1021,7 +1032,7 @@
         <v>30.07</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -1050,7 +1061,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -1079,7 +1090,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -1108,7 +1119,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>4.3899999999999997</v>
       </c>
@@ -1137,7 +1148,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>3.9</v>
@@ -1164,7 +1175,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>3.9</v>
@@ -1191,7 +1202,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <v>3.9</v>
@@ -1218,7 +1229,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
         <v>3.9</v>
@@ -1245,7 +1256,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
         <v>4.92</v>
@@ -1272,7 +1283,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
         <v>3.9</v>
@@ -1299,7 +1310,7 @@
         <v>10.93</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>3.9</v>
@@ -1324,7 +1335,7 @@
         <v>5.67</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>4.2</v>
@@ -1347,7 +1358,7 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
         <v>3.9</v>
@@ -1364,7 +1375,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1385,16 +1396,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -1452,7 +1463,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -1481,7 +1492,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -1510,7 +1521,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3.9</v>
       </c>
@@ -1539,7 +1550,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -1568,7 +1579,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3.9</v>
       </c>
@@ -1597,7 +1608,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -1626,7 +1637,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -1655,7 +1666,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -1684,7 +1695,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>4.6399999999999997</v>
       </c>
@@ -1713,7 +1724,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>5.18</v>
       </c>
@@ -1742,7 +1753,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -1771,7 +1782,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -1800,7 +1811,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>3.9</v>
       </c>
@@ -1829,7 +1840,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3.9</v>
       </c>
@@ -1858,7 +1869,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -1887,7 +1898,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>6.19</v>
       </c>
@@ -1916,7 +1927,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3.9</v>
       </c>
@@ -1945,7 +1956,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -1974,7 +1985,7 @@
         <v>5.37</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -2003,7 +2014,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -2032,7 +2043,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -2061,7 +2072,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -2090,7 +2101,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -2119,7 +2130,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>3.9</v>
       </c>
@@ -2148,7 +2159,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>3.9</v>
@@ -2175,7 +2186,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>3.9</v>
@@ -2202,7 +2213,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <v>3.9</v>
@@ -2229,7 +2240,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
         <v>3.9</v>
@@ -2256,7 +2267,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
         <v>3.9</v>
@@ -2283,7 +2294,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
         <v>3.9</v>
@@ -2310,7 +2321,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>3.9</v>
@@ -2337,7 +2348,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1">
@@ -2362,7 +2373,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1">
@@ -2387,7 +2398,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2414,16 +2425,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2452,7 +2463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -2481,7 +2492,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -2510,7 +2521,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -2539,7 +2550,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3.9</v>
       </c>
@@ -2568,7 +2579,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -2597,7 +2608,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3.9</v>
       </c>
@@ -2626,7 +2637,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -2655,7 +2666,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -2684,7 +2695,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -2713,7 +2724,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3.9</v>
       </c>
@@ -2742,7 +2753,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3.9</v>
       </c>
@@ -2771,7 +2782,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -2800,7 +2811,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -2829,7 +2840,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>3.9</v>
       </c>
@@ -2858,7 +2869,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3.9</v>
       </c>
@@ -2887,7 +2898,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -2916,7 +2927,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>3.9</v>
       </c>
@@ -2945,7 +2956,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3.9</v>
       </c>
@@ -2974,7 +2985,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4.4800000000000004</v>
       </c>
@@ -3003,7 +3014,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -3032,7 +3043,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -3061,7 +3072,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -3090,7 +3101,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -3119,7 +3130,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -3148,7 +3159,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>3.9</v>
       </c>
@@ -3177,7 +3188,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>3.9</v>
       </c>
@@ -3206,7 +3217,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>3.9</v>
       </c>
@@ -3235,7 +3246,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <v>3.9</v>
@@ -3262,7 +3273,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
         <v>3.9</v>
@@ -3289,7 +3300,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
         <v>3.9</v>
@@ -3316,7 +3327,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
         <v>3.9</v>
@@ -3343,7 +3354,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>3.9</v>
@@ -3370,7 +3381,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>7.23</v>
@@ -3397,7 +3408,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
         <v>3.9</v>
@@ -3422,7 +3433,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3443,16 +3454,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3481,7 +3492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -3510,7 +3521,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -3539,7 +3550,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -3568,7 +3579,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3.9</v>
       </c>
@@ -3597,7 +3608,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -3626,7 +3637,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3.9</v>
       </c>
@@ -3655,7 +3666,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -3684,7 +3695,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -3713,7 +3724,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -3742,7 +3753,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3.9</v>
       </c>
@@ -3771,7 +3782,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3.9</v>
       </c>
@@ -3800,7 +3811,7 @@
         <v>16.18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -3829,7 +3840,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -3858,7 +3869,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>3.9</v>
       </c>
@@ -3887,7 +3898,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3.9</v>
       </c>
@@ -3916,7 +3927,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -3945,7 +3956,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>11</v>
       </c>
@@ -3974,7 +3985,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3.9</v>
       </c>
@@ -4003,7 +4014,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -4032,7 +4043,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -4061,7 +4072,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -4090,7 +4101,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -4119,7 +4130,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -4148,7 +4159,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -4177,7 +4188,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>3.9</v>
       </c>
@@ -4206,7 +4217,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>3.9</v>
       </c>
@@ -4235,7 +4246,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>3.9</v>
@@ -4262,7 +4273,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <v>160.97</v>
@@ -4289,7 +4300,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
         <v>3.9</v>
@@ -4316,7 +4327,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
         <v>599.41</v>
@@ -4343,7 +4354,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
         <v>3.9</v>
@@ -4370,7 +4381,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>159.26</v>
@@ -4397,7 +4408,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>3.9</v>
@@ -4424,7 +4435,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4443,7 +4454,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4460,7 +4471,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4483,19 +4494,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4524,7 +4535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>8.16</v>
       </c>
@@ -4553,7 +4564,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>8.3699999999999992</v>
       </c>
@@ -4582,7 +4593,7 @@
         <v>103.15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>8.1300000000000008</v>
       </c>
@@ -4611,7 +4622,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>7.76</v>
       </c>
@@ -4640,7 +4651,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>8.34</v>
       </c>
@@ -4669,7 +4680,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>8.81</v>
       </c>
@@ -4698,7 +4709,7 @@
         <v>30.03</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>8.3000000000000007</v>
       </c>
@@ -4727,7 +4738,7 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8.4</v>
       </c>
@@ -4756,7 +4767,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8.14</v>
       </c>
@@ -4785,7 +4796,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9.2899999999999991</v>
       </c>
@@ -4814,7 +4825,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>8.44</v>
       </c>
@@ -4843,7 +4854,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>8.44</v>
       </c>
@@ -4872,7 +4883,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>8.64</v>
       </c>
@@ -4901,7 +4912,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>8.7200000000000006</v>
       </c>
@@ -4930,7 +4941,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>7.55</v>
       </c>
@@ -4959,7 +4970,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>8.06</v>
       </c>
@@ -4988,7 +4999,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>3.9</v>
       </c>
@@ -5017,7 +5028,7 @@
         <v>12.47</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>3.9</v>
       </c>
@@ -5046,7 +5057,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -5075,7 +5086,7 @@
         <v>129.46</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -5104,7 +5115,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -5133,7 +5144,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -5162,7 +5173,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -5191,7 +5202,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -5220,7 +5231,7 @@
         <v>20.85</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>3.9</v>
       </c>
@@ -5249,7 +5260,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>3.9</v>
       </c>
@@ -5278,7 +5289,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>3.9</v>
       </c>
@@ -5307,7 +5318,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>3.9</v>
       </c>
@@ -5336,7 +5347,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>3.9</v>
       </c>
@@ -5365,7 +5376,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>3.9</v>
       </c>
@@ -5394,7 +5405,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>3.9</v>
       </c>
@@ -5423,7 +5434,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>3.9</v>
       </c>
@@ -5452,7 +5463,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E34" s="1">
         <v>3.9</v>
       </c>
@@ -5463,7 +5474,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E35" s="1">
         <v>10.09</v>
       </c>
@@ -5474,7 +5485,7 @@
         <v>312.02</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E36" s="1">
         <v>699.73</v>
       </c>
@@ -5485,7 +5496,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E37" s="1">
         <v>51.91</v>
       </c>

--- a/data/Fig_3.xlsx
+++ b/data/Fig_3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5174E5E0-EE87-1D40-B70E-0BA59D093051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9CE81E-9A2E-405B-9940-730CC0E4DA71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig_3a" sheetId="1" r:id="rId1"/>
@@ -13,28 +13,20 @@
     <sheet name="Fig_3c" sheetId="3" r:id="rId3"/>
     <sheet name="Fig_3d" sheetId="4" r:id="rId4"/>
     <sheet name="Fig_3e" sheetId="5" r:id="rId5"/>
+    <sheet name="Fig_3f" sheetId="7" r:id="rId6"/>
+    <sheet name="Figure" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
   <si>
     <t>0-9</t>
   </si>
@@ -121,6 +113,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>576072</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9144</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{012AA0C3-EF56-4C40-8AD8-96F507A34215}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6062472" cy="4771644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,9 +439,9 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -452,7 +499,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -481,7 +528,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -510,7 +557,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3.9</v>
       </c>
@@ -539,7 +586,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -568,7 +615,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5.35</v>
       </c>
@@ -597,7 +644,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -626,7 +673,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -655,7 +702,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -684,7 +731,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3.9</v>
       </c>
@@ -713,7 +760,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3.9</v>
       </c>
@@ -742,7 +789,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -771,7 +818,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -800,7 +847,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10.23</v>
       </c>
@@ -829,7 +876,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3.9</v>
       </c>
@@ -858,7 +905,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -887,7 +934,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>3.9</v>
       </c>
@@ -916,7 +963,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>7.13</v>
       </c>
@@ -945,7 +992,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -974,7 +1021,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -1003,7 +1050,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -1032,7 +1079,7 @@
         <v>30.07</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -1061,7 +1108,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -1090,7 +1137,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -1119,7 +1166,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>4.3899999999999997</v>
       </c>
@@ -1148,7 +1195,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>3.9</v>
@@ -1175,7 +1222,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>3.9</v>
@@ -1202,7 +1249,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <v>3.9</v>
@@ -1229,7 +1276,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
         <v>3.9</v>
@@ -1256,7 +1303,7 @@
         <v>4.38</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
         <v>4.92</v>
@@ -1283,7 +1330,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
         <v>3.9</v>
@@ -1310,7 +1357,7 @@
         <v>10.93</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>3.9</v>
@@ -1335,7 +1382,7 @@
         <v>5.67</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>4.2</v>
@@ -1358,7 +1405,7 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
         <v>3.9</v>
@@ -1375,7 +1422,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1392,6 +1439,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1403,9 +1451,9 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1434,7 +1482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -1463,7 +1511,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -1492,7 +1540,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -1521,7 +1569,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3.9</v>
       </c>
@@ -1550,7 +1598,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -1579,7 +1627,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3.9</v>
       </c>
@@ -1608,7 +1656,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -1637,7 +1685,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -1666,7 +1714,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -1695,7 +1743,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4.6399999999999997</v>
       </c>
@@ -1724,7 +1772,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5.18</v>
       </c>
@@ -1753,7 +1801,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -1782,7 +1830,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -1811,7 +1859,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3.9</v>
       </c>
@@ -1840,7 +1888,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3.9</v>
       </c>
@@ -1869,7 +1917,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -1898,7 +1946,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>6.19</v>
       </c>
@@ -1927,7 +1975,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3.9</v>
       </c>
@@ -1956,7 +2004,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -1985,7 +2033,7 @@
         <v>5.37</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -2014,7 +2062,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -2043,7 +2091,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -2072,7 +2120,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -2101,7 +2149,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -2130,7 +2178,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3.9</v>
       </c>
@@ -2159,7 +2207,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>3.9</v>
@@ -2186,7 +2234,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>3.9</v>
@@ -2213,7 +2261,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <v>3.9</v>
@@ -2240,7 +2288,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
         <v>3.9</v>
@@ -2267,7 +2315,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
         <v>3.9</v>
@@ -2294,7 +2342,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
         <v>3.9</v>
@@ -2321,7 +2369,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>3.9</v>
@@ -2348,7 +2396,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1">
@@ -2373,7 +2421,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1">
@@ -2398,7 +2446,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2421,6 +2469,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2432,9 +2481,9 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2463,7 +2512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -2492,7 +2541,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -2521,7 +2570,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -2550,7 +2599,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3.9</v>
       </c>
@@ -2579,7 +2628,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -2608,7 +2657,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3.9</v>
       </c>
@@ -2637,7 +2686,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -2666,7 +2715,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -2695,7 +2744,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -2724,7 +2773,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3.9</v>
       </c>
@@ -2753,7 +2802,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3.9</v>
       </c>
@@ -2782,7 +2831,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -2811,7 +2860,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -2840,7 +2889,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3.9</v>
       </c>
@@ -2869,7 +2918,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3.9</v>
       </c>
@@ -2898,7 +2947,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -2927,7 +2976,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>3.9</v>
       </c>
@@ -2956,7 +3005,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3.9</v>
       </c>
@@ -2985,7 +3034,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4.4800000000000004</v>
       </c>
@@ -3014,7 +3063,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -3043,7 +3092,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -3072,7 +3121,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -3101,7 +3150,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -3130,7 +3179,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -3159,7 +3208,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3.9</v>
       </c>
@@ -3188,7 +3237,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>3.9</v>
       </c>
@@ -3217,7 +3266,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>3.9</v>
       </c>
@@ -3246,7 +3295,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <v>3.9</v>
@@ -3273,7 +3322,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
         <v>3.9</v>
@@ -3300,7 +3349,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
         <v>3.9</v>
@@ -3327,7 +3376,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
         <v>3.9</v>
@@ -3354,7 +3403,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>3.9</v>
@@ -3381,7 +3430,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>7.23</v>
@@ -3408,7 +3457,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1">
         <v>3.9</v>
@@ -3433,7 +3482,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3450,6 +3499,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3461,9 +3511,9 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3492,7 +3542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3.9</v>
       </c>
@@ -3521,7 +3571,7 @@
         <v>5.23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3.9</v>
       </c>
@@ -3550,7 +3600,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3.9</v>
       </c>
@@ -3579,7 +3629,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3.9</v>
       </c>
@@ -3608,7 +3658,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3.9</v>
       </c>
@@ -3637,7 +3687,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3.9</v>
       </c>
@@ -3666,7 +3716,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3.9</v>
       </c>
@@ -3695,7 +3745,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3.9</v>
       </c>
@@ -3724,7 +3774,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3.9</v>
       </c>
@@ -3753,7 +3803,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3.9</v>
       </c>
@@ -3782,7 +3832,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3.9</v>
       </c>
@@ -3811,7 +3861,7 @@
         <v>16.18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3.9</v>
       </c>
@@ -3840,7 +3890,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3.9</v>
       </c>
@@ -3869,7 +3919,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3.9</v>
       </c>
@@ -3898,7 +3948,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3.9</v>
       </c>
@@ -3927,7 +3977,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3.9</v>
       </c>
@@ -3956,7 +4006,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>11</v>
       </c>
@@ -3985,7 +4035,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3.9</v>
       </c>
@@ -4014,7 +4064,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -4043,7 +4093,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -4072,7 +4122,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -4101,7 +4151,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -4130,7 +4180,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -4159,7 +4209,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -4188,7 +4238,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3.9</v>
       </c>
@@ -4217,7 +4267,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>3.9</v>
       </c>
@@ -4246,7 +4296,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1">
         <v>3.9</v>
@@ -4273,7 +4323,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1">
         <v>160.97</v>
@@ -4300,7 +4350,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1">
         <v>3.9</v>
@@ -4327,7 +4377,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
         <v>599.41</v>
@@ -4354,7 +4404,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1">
         <v>3.9</v>
@@ -4381,7 +4431,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1">
         <v>159.26</v>
@@ -4408,7 +4458,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1">
         <v>3.9</v>
@@ -4435,7 +4485,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4454,7 +4504,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4471,7 +4521,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4490,6 +4540,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4497,16 +4548,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="1"/>
+    <col min="1" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4535,7 +4586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>8.16</v>
       </c>
@@ -4564,7 +4615,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>8.3699999999999992</v>
       </c>
@@ -4593,7 +4644,7 @@
         <v>103.15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>8.1300000000000008</v>
       </c>
@@ -4622,7 +4673,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>7.76</v>
       </c>
@@ -4651,7 +4702,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>8.34</v>
       </c>
@@ -4680,7 +4731,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>8.81</v>
       </c>
@@ -4709,7 +4760,7 @@
         <v>30.03</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8.3000000000000007</v>
       </c>
@@ -4738,7 +4789,7 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8.4</v>
       </c>
@@ -4767,7 +4818,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8.14</v>
       </c>
@@ -4796,7 +4847,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9.2899999999999991</v>
       </c>
@@ -4825,7 +4876,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8.44</v>
       </c>
@@ -4854,7 +4905,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>8.44</v>
       </c>
@@ -4883,7 +4934,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>8.64</v>
       </c>
@@ -4912,7 +4963,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>8.7200000000000006</v>
       </c>
@@ -4941,7 +4992,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>7.55</v>
       </c>
@@ -4970,7 +5021,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>8.06</v>
       </c>
@@ -4999,7 +5050,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>3.9</v>
       </c>
@@ -5028,7 +5079,7 @@
         <v>12.47</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3.9</v>
       </c>
@@ -5057,7 +5108,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3.9</v>
       </c>
@@ -5086,7 +5137,7 @@
         <v>129.46</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3.9</v>
       </c>
@@ -5115,7 +5166,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3.9</v>
       </c>
@@ -5144,7 +5195,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3.9</v>
       </c>
@@ -5173,7 +5224,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3.9</v>
       </c>
@@ -5202,7 +5253,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3.9</v>
       </c>
@@ -5231,7 +5282,7 @@
         <v>20.85</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>3.9</v>
       </c>
@@ -5260,7 +5311,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>3.9</v>
       </c>
@@ -5289,7 +5340,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>3.9</v>
       </c>
@@ -5318,7 +5369,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>3.9</v>
       </c>
@@ -5347,7 +5398,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>3.9</v>
       </c>
@@ -5376,7 +5427,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>3.9</v>
       </c>
@@ -5405,7 +5456,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>3.9</v>
       </c>
@@ -5434,7 +5485,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>3.9</v>
       </c>
@@ -5463,7 +5514,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E34" s="1">
         <v>3.9</v>
       </c>
@@ -5474,7 +5525,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E35" s="1">
         <v>10.09</v>
       </c>
@@ -5485,7 +5536,7 @@
         <v>312.02</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E36" s="1">
         <v>699.73</v>
       </c>
@@ -5496,7 +5547,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E37" s="1">
         <v>51.91</v>
       </c>
@@ -5511,4 +5562,1061 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3187EB-A528-450E-BC42-1954E89BD5F9}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>663.81</v>
+      </c>
+      <c r="C2" s="1">
+        <v>672.24</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7.39</v>
+      </c>
+      <c r="E2" s="1">
+        <v>29.58</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5.55</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>801</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>81.33</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F4" s="1">
+        <v>57.09</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>67.959999999999994</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>144.47</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>319.92</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>30.25</v>
+      </c>
+      <c r="G6" s="1">
+        <v>23.53</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>407.75</v>
+      </c>
+      <c r="C7" s="1">
+        <v>266.94</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44.54</v>
+      </c>
+      <c r="G7" s="1">
+        <v>70.98</v>
+      </c>
+      <c r="H7" s="1">
+        <v>133.61000000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>736.88</v>
+      </c>
+      <c r="C8" s="1">
+        <v>485.57</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="F8" s="1">
+        <v>23.11</v>
+      </c>
+      <c r="G8" s="1">
+        <v>64.13</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>533.66</v>
+      </c>
+      <c r="C9" s="1">
+        <v>80.010000000000005</v>
+      </c>
+      <c r="D9" s="1">
+        <v>88.25</v>
+      </c>
+      <c r="E9" s="1">
+        <v>148.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4.43</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>179.87</v>
+      </c>
+      <c r="C10" s="1">
+        <v>474.34</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6.37</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>11.31</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H11" s="1">
+        <v>9.76</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>532.79999999999995</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>801</v>
+      </c>
+      <c r="C13" s="1">
+        <v>33.08</v>
+      </c>
+      <c r="D13" s="1">
+        <v>19.05</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G13" s="1">
+        <v>608.66</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5.32</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>430.29</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>88.21</v>
+      </c>
+      <c r="E14" s="1">
+        <v>17.09</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H14" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B15" s="1">
+        <v>176.21</v>
+      </c>
+      <c r="C15" s="1">
+        <v>801</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7.92</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H15" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I15" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="C16" s="1">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="E16" s="1">
+        <v>65.28</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B17" s="1">
+        <v>126.06</v>
+      </c>
+      <c r="C17" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>94.99</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5.27</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>779.55</v>
+      </c>
+      <c r="D18" s="1">
+        <v>73.95</v>
+      </c>
+      <c r="E18" s="1">
+        <v>19.97</v>
+      </c>
+      <c r="F18" s="1">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I18" s="1">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B19" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>801</v>
+      </c>
+      <c r="D19" s="1">
+        <v>37.35</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G19" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H19" s="1">
+        <v>85.3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B20" s="1">
+        <v>180.4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5.38</v>
+      </c>
+      <c r="D20" s="1">
+        <v>70.23</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="F20" s="1">
+        <v>351.03</v>
+      </c>
+      <c r="G20" s="1">
+        <v>801</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I20" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="D21" s="1">
+        <v>414.51</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H21" s="1">
+        <v>16.43</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="D22" s="1">
+        <v>15.39</v>
+      </c>
+      <c r="E22" s="1">
+        <v>371.38</v>
+      </c>
+      <c r="F22" s="1">
+        <v>150.08000000000001</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H22" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B23" s="1">
+        <v>204.53</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7.38</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.59</v>
+      </c>
+      <c r="F23" s="1">
+        <v>92.17</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B24" s="1">
+        <v>28.47</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="D24" s="1">
+        <v>9.83</v>
+      </c>
+      <c r="E24" s="1">
+        <v>27.71</v>
+      </c>
+      <c r="F24" s="1">
+        <v>729.25</v>
+      </c>
+      <c r="G24" s="1">
+        <v>26.66</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B25" s="1">
+        <v>465.63</v>
+      </c>
+      <c r="C25" s="1">
+        <v>194.73</v>
+      </c>
+      <c r="D25" s="1">
+        <v>79.91</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="F25" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5.03</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="C26" s="1">
+        <v>37.19</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="E26" s="1">
+        <v>24.4</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="G26" s="1">
+        <v>10.77</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I26" s="1">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="C27" s="1">
+        <v>518.14</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8.58</v>
+      </c>
+      <c r="E27" s="1">
+        <v>453.76</v>
+      </c>
+      <c r="F27" s="1">
+        <v>117.97</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B28" s="1">
+        <v>16.21</v>
+      </c>
+      <c r="C28" s="1">
+        <v>42.68</v>
+      </c>
+      <c r="D28" s="1">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="F28" s="1">
+        <v>401.01</v>
+      </c>
+      <c r="G28" s="1">
+        <v>191.61</v>
+      </c>
+      <c r="H28" s="1">
+        <v>425.4</v>
+      </c>
+      <c r="I28" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B29" s="1">
+        <v>651.85</v>
+      </c>
+      <c r="C29" s="1">
+        <v>239.56</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="E29" s="1">
+        <v>66.44</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G29" s="1">
+        <v>7.76</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5.23</v>
+      </c>
+      <c r="F30" s="1">
+        <v>109.12</v>
+      </c>
+      <c r="G30" s="1">
+        <v>6.74</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I30" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="D31" s="1">
+        <v>6.49</v>
+      </c>
+      <c r="E31" s="1">
+        <v>37.61</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I31" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B32" s="1">
+        <v>639.26</v>
+      </c>
+      <c r="C32" s="1">
+        <v>5.33</v>
+      </c>
+      <c r="D32" s="1">
+        <v>801</v>
+      </c>
+      <c r="E32" s="1">
+        <v>24.72</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G32" s="1">
+        <v>160.05000000000001</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I32" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="C33" s="1">
+        <v>54.59</v>
+      </c>
+      <c r="D33" s="1">
+        <v>86.7</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4.71</v>
+      </c>
+      <c r="F33" s="1">
+        <v>30.67</v>
+      </c>
+      <c r="G33" s="1">
+        <v>122.63</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="I33" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="F34" s="1">
+        <v>6.38</v>
+      </c>
+      <c r="G34" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1">
+        <v>92.78</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="G36" s="1">
+        <v>7.07</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686FF789-8348-47A6-A5AC-E98F88D278C2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>